--- a/database_excel_files/Staff.xlsx
+++ b/database_excel_files/Staff.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>newPassword</t>
+  </si>
+  <si>
+    <t>036c3265b4bb41749b28030f2d681b18</t>
+  </si>
+  <si>
+    <t>dzaw@mail.com</t>
+  </si>
+  <si>
+    <t>Derek Zaw</t>
+  </si>
+  <si>
+    <t>4abd63eec1534cd086b5865988360cd6</t>
+  </si>
+  <si>
+    <t>d3eb0ccfcf8647429f74b62f5acb28d9</t>
+  </si>
+  <si>
+    <t>9916b1bd30d74d6194db37f2da1848f4</t>
+  </si>
+  <si>
+    <t>65a645fbd9a5458bae204ce7fe655a73</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -460,6 +481,76 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7EDCBCE2-87BF-4DFE-B8B6-D80D7D8B1FEC}"/>

--- a/database_excel_files/Staff.xlsx
+++ b/database_excel_files/Staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E4489-D8BA-43B2-A28B-1C0DE98544E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D31E4489-D8BA-43B2-A28B-1C0DE98544E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76469C03-ADB9-4F24-AD4E-712083E1C43F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -39,46 +39,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>836d38a9c0454bcea78f55a4cbf3bba6</t>
-  </si>
-  <si>
-    <t>mike@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mikey Jo</t>
-  </si>
-  <si>
-    <t>staff1</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>staff2</t>
-  </si>
-  <si>
-    <t>jane@example.com</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>John Doe Updated</t>
-  </si>
-  <si>
-    <t>newPassword</t>
-  </si>
-  <si>
-    <t>036c3265b4bb41749b28030f2d681b18</t>
+    <t>a0881d6f93b64f29bfe02267cf9dc4c7</t>
   </si>
   <si>
     <t>dzaw@mail.com</t>
@@ -87,16 +48,115 @@
     <t>Derek Zaw</t>
   </si>
   <si>
-    <t>4abd63eec1534cd086b5865988360cd6</t>
-  </si>
-  <si>
-    <t>d3eb0ccfcf8647429f74b62f5acb28d9</t>
-  </si>
-  <si>
-    <t>9916b1bd30d74d6194db37f2da1848f4</t>
-  </si>
-  <si>
-    <t>65a645fbd9a5458bae204ce7fe655a73</t>
+    <t>5b01e39f17b64db18e7f80d02ddc81f3</t>
+  </si>
+  <si>
+    <t>73d8482fafb341149958d350c3e164d1</t>
+  </si>
+  <si>
+    <t>7928909862d1476a90e0a4e8cd749e2b</t>
+  </si>
+  <si>
+    <t>6e88ff67650645f897e79a37d7263ce4</t>
+  </si>
+  <si>
+    <t>77f049d9643e474082cdd984af022f42</t>
+  </si>
+  <si>
+    <t>e0f6b2b6c3f14a9d83819c5a4842ce9e</t>
+  </si>
+  <si>
+    <t>0023031140c64fc9b39307b9a36b107f</t>
+  </si>
+  <si>
+    <t>d15e229091f44c0bb9519a2d8b5b9186</t>
+  </si>
+  <si>
+    <t>d4da684aa9e245e187360eb38ca30c93</t>
+  </si>
+  <si>
+    <t>dddb3f881c084008bfa6696b4c2b66f0</t>
+  </si>
+  <si>
+    <t>2f0773e8c1f647c5a74090400cca7516</t>
+  </si>
+  <si>
+    <t>ca69ed25cad2430e982ade6efb608496</t>
+  </si>
+  <si>
+    <t>3288d570e59b4ef1ac054e85e9f425c3</t>
+  </si>
+  <si>
+    <t>644f4770cf684353879c2ad3ea99edd7</t>
+  </si>
+  <si>
+    <t>3c28c12f784448ae9d5f4811a345e286</t>
+  </si>
+  <si>
+    <t>29622a1e5fb94719a321562892213981</t>
+  </si>
+  <si>
+    <t>bffcf15328ed4372a865c4dc3f640ab0</t>
+  </si>
+  <si>
+    <t>27bcba2f97b04d2ca0d1ac3cf965bfd9</t>
+  </si>
+  <si>
+    <t>3c97b2d08b0248d8afbfd6706b9ec1ad</t>
+  </si>
+  <si>
+    <t>4b71a7fcf32149dfa7c701c37f888484</t>
+  </si>
+  <si>
+    <t>20778d5d8dbf47af860f92e74089903b</t>
+  </si>
+  <si>
+    <t>876e8477281442d1937cb82ad2f80e43</t>
+  </si>
+  <si>
+    <t>755d1e81bb014204aaa776a1d3f1709b</t>
+  </si>
+  <si>
+    <t>c3373aa102d9425d9c8d535ea773ce5f</t>
+  </si>
+  <si>
+    <t>18c510436eab4bf0ae44a22539a5d9b4</t>
+  </si>
+  <si>
+    <t>93443d4dc45b49b2aaebaaf8377a8ec7</t>
+  </si>
+  <si>
+    <t>9aac359f7ee24906b17c8195cd838364</t>
+  </si>
+  <si>
+    <t>0c357fef217c47c9b445f169b4b011bc</t>
+  </si>
+  <si>
+    <t>b36022d242634e649f4c376ea4626f7b</t>
+  </si>
+  <si>
+    <t>c9b220bbc1e64a8382c22ac0052ae390</t>
+  </si>
+  <si>
+    <t>28f4c938cfaa4b3ea9abd87895750a88</t>
+  </si>
+  <si>
+    <t>08376b4ec41b4756a63e76327e64a94c</t>
+  </si>
+  <si>
+    <t>a9152a65483e4ba0a7b0d79d47ab74ec</t>
+  </si>
+  <si>
+    <t>d235cfbacef2457089ac6c10cd44717d</t>
+  </si>
+  <si>
+    <t>bccff4bdb58f4827b2613abf1486e949</t>
+  </si>
+  <si>
+    <t>4a1065c41f8b4b679b087c09895eab82</t>
+  </si>
+  <si>
+    <t>f731d24c90ea45ff858fffa0ae352327</t>
   </si>
 </sst>
 </file>
@@ -104,18 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,16 +190,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +506,7 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -467,94 +516,581 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7EDCBCE2-87BF-4DFE-B8B6-D80D7D8B1FEC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database_excel_files/Staff.xlsx
+++ b/database_excel_files/Staff.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>dzaw@mail.com</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>c6a4beee0132472a99800fe0c310c731</t>
+  </si>
+  <si>
+    <t>jun@mail.com</t>
+  </si>
+  <si>
+    <t>junyang</t>
+  </si>
+  <si>
+    <t>quan@mail.com</t>
+  </si>
+  <si>
+    <t>quan</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="E2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>21</v>
@@ -527,59 +539,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E4" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="0">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E5" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
